--- a/data_excel/381.xlsx
+++ b/data_excel/381.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前100題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,9 +87,6 @@
     <t>放進</t>
   </si>
   <si>
-    <t>nv</t>
-  </si>
-  <si>
     <t>了</t>
   </si>
   <si>
@@ -132,6 +129,10 @@
   </si>
   <si>
     <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +506,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -518,7 +519,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -527,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -538,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
@@ -547,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -558,7 +559,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -567,7 +568,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -578,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -587,7 +588,7 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -598,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -607,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -618,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -627,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -644,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,7 +656,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -666,40 +667,40 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
+      <c r="B10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -710,12 +711,12 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>

--- a/data_excel/381.xlsx
+++ b/data_excel/381.xlsx
@@ -128,11 +128,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pv</t>
+    <t>snv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -183,6 +183,17 @@
       <left style="medium">
         <color rgb="FFFF0000"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FFFF0000"/>
       </right>
@@ -198,9 +209,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -506,7 +518,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -675,10 +687,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
